--- a/ExcelData/TC_Projects.xlsx
+++ b/ExcelData/TC_Projects.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanjiv_QA\Eclipse Project\HRMS_UI\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,19 +50,19 @@
     <t>project</t>
   </si>
   <si>
+    <t>project JhonsonJhonsonJhonsonJhonson</t>
+  </si>
+  <si>
     <t>Cloud computing</t>
   </si>
   <si>
+    <t>Jhonson</t>
+  </si>
+  <si>
     <t>NextJs</t>
   </si>
   <si>
     <t>15 August 2023</t>
-  </si>
-  <si>
-    <t>Jhonson</t>
-  </si>
-  <si>
-    <t>project JhonsonJhonsonJhonsonJhonson</t>
   </si>
 </sst>
 </file>
@@ -100,7 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -388,72 +393,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>